--- a/graphs/sigarra/description.xlsx
+++ b/graphs/sigarra/description.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ner-re-pt\hyperparameters-graphs\sigarra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ner-re-pt\graphs\sigarra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="num entities" sheetId="1" r:id="rId1"/>
+    <sheet name="num news" sheetId="3" r:id="rId2"/>
+    <sheet name="characters" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>SIGARRA domain</t>
   </si>
@@ -106,6 +108,42 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Q1-Min</t>
+  </si>
+  <si>
+    <t>Median-Q1</t>
+  </si>
+  <si>
+    <t>Q3-Median</t>
+  </si>
+  <si>
+    <t>Maximum-Q3</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Average number of characters</t>
+  </si>
 </sst>
 </file>
 
@@ -148,14 +186,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -194,7 +293,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'num entities'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -215,7 +314,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -247,7 +346,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$K$4</c:f>
+              <c:f>'num entities'!$D$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -289,7 +388,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$5</c:f>
+              <c:f>'num entities'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -310,7 +409,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -342,7 +441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$K$5</c:f>
+              <c:f>'num entities'!$D$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -384,7 +483,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
+              <c:f>'num entities'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -405,7 +504,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -437,7 +536,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$6:$K$6</c:f>
+              <c:f>'num entities'!$D$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -479,7 +578,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$7</c:f>
+              <c:f>'num entities'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -500,7 +599,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -532,7 +631,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$K$7</c:f>
+              <c:f>'num entities'!$D$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -574,7 +673,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$8</c:f>
+              <c:f>'num entities'!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -595,7 +694,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -627,7 +726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$K$8</c:f>
+              <c:f>'num entities'!$D$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -669,7 +768,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$9</c:f>
+              <c:f>'num entities'!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -690,7 +789,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -722,7 +821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$K$9</c:f>
+              <c:f>'num entities'!$D$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -764,7 +863,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$10</c:f>
+              <c:f>'num entities'!$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -787,7 +886,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -819,7 +918,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$K$10</c:f>
+              <c:f>'num entities'!$D$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -861,7 +960,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$11</c:f>
+              <c:f>'num entities'!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -884,7 +983,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -916,7 +1015,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$11:$K$11</c:f>
+              <c:f>'num entities'!$D$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -958,7 +1057,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$12</c:f>
+              <c:f>'num entities'!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -981,7 +1080,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1013,7 +1112,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$12:$K$12</c:f>
+              <c:f>'num entities'!$D$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1055,7 +1154,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$13</c:f>
+              <c:f>'num entities'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1078,7 +1177,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1110,7 +1209,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$K$13</c:f>
+              <c:f>'num entities'!$D$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1152,7 +1251,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$14</c:f>
+              <c:f>'num entities'!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1175,7 +1274,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1207,7 +1306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$K$14</c:f>
+              <c:f>'num entities'!$D$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1249,7 +1348,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$15</c:f>
+              <c:f>'num entities'!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1272,7 +1371,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1304,7 +1403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$K$15</c:f>
+              <c:f>'num entities'!$D$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1346,7 +1445,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$16</c:f>
+              <c:f>'num entities'!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1370,7 +1469,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1402,7 +1501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$K$16</c:f>
+              <c:f>'num entities'!$D$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1444,7 +1543,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$17</c:f>
+              <c:f>'num entities'!$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1468,7 +1567,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1500,7 +1599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$K$17</c:f>
+              <c:f>'num entities'!$D$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1542,7 +1641,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$18</c:f>
+              <c:f>'num entities'!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1566,7 +1665,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1598,7 +1697,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$K$18</c:f>
+              <c:f>'num entities'!$D$18:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1640,7 +1739,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$19</c:f>
+              <c:f>'num entities'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1664,7 +1763,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1696,7 +1795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$K$19</c:f>
+              <c:f>'num entities'!$D$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1738,7 +1837,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$20</c:f>
+              <c:f>'num entities'!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1762,7 +1861,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$D$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1794,7 +1893,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$K$20</c:f>
+              <c:f>'num entities'!$D$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2142,7 +2241,3160 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FEUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FADEUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FDUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FBAUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FEP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCNAUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'num news'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'num news'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'num news'!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-3ABE-48E6-A4A1-215CF9B242D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="445163584"/>
+        <c:axId val="445155384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445163584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="445155384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445155384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of news</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445163584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>characters!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>characters!$D$14:$T$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="17"/>
+                  <c:pt idx="0">
+                    <c:v>78.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>209</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>418.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>380</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>237</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>187</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>205</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>87.5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>80.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106.5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>639</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>661</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>243</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>457</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>characters!$D$7:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FCUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FDUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FADEUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FAUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>FBAUP</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>FCNAUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>FEUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>characters!$D$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>223.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>594.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>182.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>249.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CA2-4250-B3C2-958EE160AB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>characters!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median-Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>characters!$D$7:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FCUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FDUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FADEUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FAUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>FBAUP</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>FCNAUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>FEUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>characters!$D$16:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>622.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>572.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>608.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>430.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>217.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>231.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CA2-4250-B3C2-958EE160AB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>characters!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q3-Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>characters!$D$18:$T$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="17"/>
+                  <c:pt idx="0">
+                    <c:v>270</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3380</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5508</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3161</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2457</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1289</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>928</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4030</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10558.5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1985.5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2502.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11393</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2932</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>501</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3595.5</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>12729</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>characters!$D$7:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FCUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FDUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FADEUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FAUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>FBAUP</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>FCNAUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>FEUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>characters!$D$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>723.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3055.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>650.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>606.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>590.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7CA2-4250-B3C2-958EE160AB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="294912016"/>
+        <c:axId val="294907096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="294912016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>SIGARRA domain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294907096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="294907096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of characters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294912016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2685,6 +5937,1014 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2724,6 +6984,115 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A83EA51-4765-48A2-BC63-E78920A206D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D744C1D-ACCE-4359-B6DC-B78E11FF2063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:T12" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="C7:T12"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Statistic"/>
+    <tableColumn id="2" name="FMDUP" dataDxfId="16"/>
+    <tableColumn id="3" name="FEP" dataDxfId="15"/>
+    <tableColumn id="4" name="FLUP" dataDxfId="14"/>
+    <tableColumn id="5" name="FPCEUP" dataDxfId="13"/>
+    <tableColumn id="6" name="FMUP" dataDxfId="12"/>
+    <tableColumn id="7" name="ICBAS" dataDxfId="11"/>
+    <tableColumn id="8" name="UP" dataDxfId="10"/>
+    <tableColumn id="9" name="FCUP" dataDxfId="9"/>
+    <tableColumn id="10" name="SPUP" dataDxfId="8"/>
+    <tableColumn id="11" name="FDUP" dataDxfId="7"/>
+    <tableColumn id="12" name="FADEUP" dataDxfId="6"/>
+    <tableColumn id="13" name="FFUP" dataDxfId="5"/>
+    <tableColumn id="14" name="FAUP" dataDxfId="4"/>
+    <tableColumn id="15" name="FBAUP" dataDxfId="3"/>
+    <tableColumn id="16" name="REITORIA" dataDxfId="2"/>
+    <tableColumn id="17" name="FCNAUP" dataDxfId="1"/>
+    <tableColumn id="18" name="FEUP" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3025,7 +7394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -3122,7 +7491,7 @@
         <v>300</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L20" si="0">SUM(D5:K5)</f>
+        <f t="shared" ref="L5:L19" si="0">SUM(D5:K5)</f>
         <v>2789</v>
       </c>
     </row>
@@ -3658,4 +8027,961 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>116</v>
+      </c>
+      <c r="F7">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>110</v>
+      </c>
+      <c r="F9">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>73</v>
+      </c>
+      <c r="F11">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>58</v>
+      </c>
+      <c r="F12">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>905</v>
+      </c>
+      <c r="F23">
+        <v>1154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:T18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <v>846</v>
+      </c>
+      <c r="E8" s="2">
+        <v>251</v>
+      </c>
+      <c r="F8" s="2">
+        <v>829.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1203</v>
+      </c>
+      <c r="H8" s="2">
+        <v>604.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>725</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1003</v>
+      </c>
+      <c r="K8" s="2">
+        <v>630</v>
+      </c>
+      <c r="L8" s="2">
+        <v>846</v>
+      </c>
+      <c r="M8" s="2">
+        <v>317.5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>620</v>
+      </c>
+      <c r="O8" s="2">
+        <v>467</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1065</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>538</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1250</v>
+      </c>
+      <c r="S8" s="2">
+        <v>537</v>
+      </c>
+      <c r="T8" s="2">
+        <v>752.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>223.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>130</v>
+      </c>
+      <c r="F9" s="2">
+        <v>257</v>
+      </c>
+      <c r="G9" s="2">
+        <v>594.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>461</v>
+      </c>
+      <c r="I9" s="2">
+        <v>453</v>
+      </c>
+      <c r="J9" s="2">
+        <v>822</v>
+      </c>
+      <c r="K9" s="2">
+        <v>277</v>
+      </c>
+      <c r="L9" s="2">
+        <v>575</v>
+      </c>
+      <c r="M9" s="2">
+        <v>182.5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>249.5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>656</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>473</v>
+      </c>
+      <c r="R9" s="2">
+        <v>762</v>
+      </c>
+      <c r="S9" s="2">
+        <v>509</v>
+      </c>
+      <c r="T9" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>145</v>
+      </c>
+      <c r="E10" s="2">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2">
+        <v>176</v>
+      </c>
+      <c r="H10" s="2">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2">
+        <v>216</v>
+      </c>
+      <c r="J10" s="2">
+        <v>802</v>
+      </c>
+      <c r="K10" s="2">
+        <v>90</v>
+      </c>
+      <c r="L10" s="2">
+        <v>370</v>
+      </c>
+      <c r="M10" s="2">
+        <v>95</v>
+      </c>
+      <c r="N10" s="2">
+        <v>109</v>
+      </c>
+      <c r="O10" s="2">
+        <v>143</v>
+      </c>
+      <c r="P10" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>170</v>
+      </c>
+      <c r="R10" s="2">
+        <v>101</v>
+      </c>
+      <c r="S10" s="2">
+        <v>266</v>
+      </c>
+      <c r="T10" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1977</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4277</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7061</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4644</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3622</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2908</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2024</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5620</v>
+      </c>
+      <c r="L11" s="2">
+        <v>14460</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2832</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3773</v>
+      </c>
+      <c r="O11" s="2">
+        <v>13195</v>
+      </c>
+      <c r="P11" s="2">
+        <v>4740</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1905</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2742</v>
+      </c>
+      <c r="S11" s="2">
+        <v>4739</v>
+      </c>
+      <c r="T11" s="2">
+        <v>14072</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1707</v>
+      </c>
+      <c r="E12" s="2">
+        <v>897</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1553</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1483</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1165</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1619</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1096</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1590</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3901.5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>846.5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1270.5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1802</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1808</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>881</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2241</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1143.5</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <f>D9-D10</f>
+        <v>78.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:T14" si="0">E9-E10</f>
+        <v>57</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>418.5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>80.5</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>106.5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>639</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>661</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <f>D9</f>
+        <v>223.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:T15" si="1">E9</f>
+        <v>130</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>594.5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>822</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>575</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>182.5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>189.5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>249.5</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>473</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>509</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <f>D8-D9</f>
+        <v>622.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:T16" si="2">E8-E9</f>
+        <v>121</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>572.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>608.5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>143.5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>353</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>430.5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>217.5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>409</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>488</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <f>D12-D8</f>
+        <v>861</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:T17" si="3">E12-E8</f>
+        <v>646</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>723.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>560.5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>894</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>960</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>3055.5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>529</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>650.5</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>1335</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>743</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>343</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>991</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>606.5</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>590.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <f>D11-D12</f>
+        <v>270</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:T18" si="4">E11-E12</f>
+        <v>3380</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>5508</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>3161</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>2457</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>1289</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>928</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>4030</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>10558.5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>1985.5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>2502.5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>11393</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>2932</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>501</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>3595.5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>12729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/graphs/sigarra/description.xlsx
+++ b/graphs/sigarra/description.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="num entities" sheetId="1" r:id="rId1"/>
@@ -285,19 +285,19 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'num entities'!$C$4</c:f>
+              <c:f>'num entities'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FADEUP</c:v>
+                  <c:v>Hora</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -314,65 +314,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$C$4:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Hora</c:v>
+                  <c:v>FADEUP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evento</c:v>
+                  <c:v>FAUP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
+                  <c:v>FBAUP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Curso</c:v>
+                  <c:v>FCNAUP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
+                  <c:v>FCUP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
+                  <c:v>FDUP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Data</c:v>
+                  <c:v>FEP</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
+                  <c:v>FEUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'num entities'!$D$4:$K$4</c:f>
+              <c:f>'num entities'!$D$4:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -388,11 +442,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'num entities'!$C$5</c:f>
+              <c:f>'num entities'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FAUP</c:v>
+                  <c:v>Evento</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,65 +463,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$C$4:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Hora</c:v>
+                  <c:v>FADEUP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evento</c:v>
+                  <c:v>FAUP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
+                  <c:v>FBAUP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Curso</c:v>
+                  <c:v>FCNAUP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
+                  <c:v>FCUP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
+                  <c:v>FDUP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Data</c:v>
+                  <c:v>FEP</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
+                  <c:v>FEUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'num entities'!$D$5:$K$5</c:f>
+              <c:f>'num entities'!$E$4:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>155</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>438</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>693</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>514</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>535</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,11 +591,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'num entities'!$C$6</c:f>
+              <c:f>'num entities'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FBAUP</c:v>
+                  <c:v>Organizacao</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -504,65 +612,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$C$4:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Hora</c:v>
+                  <c:v>FADEUP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evento</c:v>
+                  <c:v>FAUP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
+                  <c:v>FBAUP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Curso</c:v>
+                  <c:v>FCNAUP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
+                  <c:v>FCUP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
+                  <c:v>FDUP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Data</c:v>
+                  <c:v>FEP</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
+                  <c:v>FEUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'num entities'!$D$6:$K$6</c:f>
+              <c:f>'num entities'!$F$4:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,11 +740,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'num entities'!$C$7</c:f>
+              <c:f>'num entities'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCNAUP</c:v>
+                  <c:v>Curso</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -599,65 +761,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$C$4:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Hora</c:v>
+                  <c:v>FADEUP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evento</c:v>
+                  <c:v>FAUP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
+                  <c:v>FBAUP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Curso</c:v>
+                  <c:v>FCNAUP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
+                  <c:v>FCUP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
+                  <c:v>FDUP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Data</c:v>
+                  <c:v>FEP</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
+                  <c:v>FEUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'num entities'!$D$7:$K$7</c:f>
+              <c:f>'num entities'!$G$4:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,11 +889,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'num entities'!$C$8</c:f>
+              <c:f>'num entities'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCUP</c:v>
+                  <c:v>Pessoa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -694,65 +910,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$C$4:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Hora</c:v>
+                  <c:v>FADEUP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evento</c:v>
+                  <c:v>FAUP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
+                  <c:v>FBAUP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Curso</c:v>
+                  <c:v>FCNAUP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
+                  <c:v>FCUP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
+                  <c:v>FDUP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Data</c:v>
+                  <c:v>FEP</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
+                  <c:v>FEUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'num entities'!$D$8:$K$8</c:f>
+              <c:f>'num entities'!$H$4:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>211</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98</c:v>
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,11 +1038,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'num entities'!$C$9</c:f>
+              <c:f>'num entities'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FDUP</c:v>
+                  <c:v>Localizacao</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -789,65 +1059,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$C$4:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Hora</c:v>
+                  <c:v>FADEUP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evento</c:v>
+                  <c:v>FAUP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
+                  <c:v>FBAUP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Curso</c:v>
+                  <c:v>FCNAUP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
+                  <c:v>FCUP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
+                  <c:v>FDUP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Data</c:v>
+                  <c:v>FEP</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
+                  <c:v>FEUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'num entities'!$D$9:$K$9</c:f>
+              <c:f>'num entities'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,11 +1187,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'num entities'!$C$10</c:f>
+              <c:f>'num entities'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FEP</c:v>
+                  <c:v>Data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -886,65 +1210,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$C$4:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Hora</c:v>
+                  <c:v>FADEUP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evento</c:v>
+                  <c:v>FAUP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
+                  <c:v>FBAUP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Curso</c:v>
+                  <c:v>FCNAUP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
+                  <c:v>FCUP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
+                  <c:v>FDUP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Data</c:v>
+                  <c:v>FEP</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
+                  <c:v>FEUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'num entities'!$D$10:$K$10</c:f>
+              <c:f>'num entities'!$J$4:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,11 +1338,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'num entities'!$C$11</c:f>
+              <c:f>'num entities'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FEUP</c:v>
+                  <c:v>UnidadeOrganica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -983,65 +1361,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
+              <c:f>'num entities'!$C$4:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Hora</c:v>
+                  <c:v>FADEUP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evento</c:v>
+                  <c:v>FAUP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
+                  <c:v>FBAUP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Curso</c:v>
+                  <c:v>FCNAUP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
+                  <c:v>FCUP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
+                  <c:v>FDUP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Data</c:v>
+                  <c:v>FEP</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
+                  <c:v>FEUP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FFUP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FLUP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FMDUP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FMUP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FPCEUP</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ICBAS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>REITORIA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SPUP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'num entities'!$D$11:$K$11</c:f>
+              <c:f>'num entities'!$K$4:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>301</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>303</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>326</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,884 +1481,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-621F-4DFB-9EE9-F7B3E835DEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'num entities'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFUP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hora</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evento</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Curso</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Data</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'num entities'!$D$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-621F-4DFB-9EE9-F7B3E835DEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'num entities'!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLUP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hora</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evento</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Curso</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Data</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'num entities'!$D$13:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>153</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-621F-4DFB-9EE9-F7B3E835DEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'num entities'!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FMDUP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hora</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evento</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Curso</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Data</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'num entities'!$D$14:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-621F-4DFB-9EE9-F7B3E835DEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'num entities'!$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FMUP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hora</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evento</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Curso</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Data</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'num entities'!$D$15:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>194</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-621F-4DFB-9EE9-F7B3E835DEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'num entities'!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FPCEUP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hora</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evento</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Curso</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Data</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'num entities'!$D$16:$K$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>139</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-621F-4DFB-9EE9-F7B3E835DEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'num entities'!$C$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ICBAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hora</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evento</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Curso</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Data</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'num entities'!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-621F-4DFB-9EE9-F7B3E835DEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'num entities'!$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>REITORIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hora</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evento</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Curso</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Data</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'num entities'!$D$18:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-621F-4DFB-9EE9-F7B3E835DEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'num entities'!$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SPUP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hora</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evento</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Curso</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Data</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'num entities'!$D$19:$K$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-621F-4DFB-9EE9-F7B3E835DEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'num entities'!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'num entities'!$D$3:$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hora</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evento</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organizacao</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Curso</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pessoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Localizacao</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Data</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UnidadeOrganica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'num entities'!$D$20:$K$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-621F-4DFB-9EE9-F7B3E835DEAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1949,11 +1503,11 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1985,7 +1539,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2055,7 +1609,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2073,7 +1627,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2091,13 +1645,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Percentage</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of entities</a:t>
+                  <a:t> of entity class</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2110,7 +1663,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2130,7 +1683,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2236,7 +1789,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6950,15 +6503,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7394,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8033,7 +7586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>

--- a/graphs/sigarra/description.xlsx
+++ b/graphs/sigarra/description.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="num entities" sheetId="1" r:id="rId1"/>
@@ -1492,7 +1492,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="100"/>
         <c:overlap val="100"/>
         <c:axId val="436385056"/>
         <c:axId val="436386696"/>
@@ -1511,7 +1511,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1524,7 +1524,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
                   <a:t>Entity classes</a:t>
                 </a:r>
               </a:p>
@@ -1543,7 +1543,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1581,7 +1581,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1600,7 +1600,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="50"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1631,7 +1631,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1644,12 +1644,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Percentage</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of entity class</a:t>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                  <a:t>Percentage of entity class</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1667,7 +1663,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1699,7 +1695,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1728,6 +1724,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7891985289689788"/>
+          <c:y val="0.29177958130120757"/>
+          <c:w val="0.19578393596816521"/>
+          <c:h val="0.42813656179703674"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1741,7 +1747,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1854,7 +1860,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1965,7 +1971,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2076,7 +2082,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2187,7 +2193,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2298,7 +2304,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2409,7 +2415,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2522,7 +2528,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2635,7 +2641,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2748,7 +2754,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2861,7 +2867,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2974,7 +2980,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3087,7 +3093,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3201,7 +3207,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3315,7 +3321,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3429,7 +3435,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3543,7 +3549,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3657,7 +3663,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3789,7 +3795,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3802,7 +3808,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
                   <a:t>Number of news</a:t>
                 </a:r>
               </a:p>
@@ -3821,7 +3827,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3853,7 +3859,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3895,7 +3901,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3943,7 +3949,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4619,7 +4625,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4632,7 +4638,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
                   <a:t>SIGARRA domain</a:t>
                 </a:r>
               </a:p>
@@ -4651,7 +4657,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4689,7 +4695,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4708,7 +4714,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="50"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -4739,7 +4745,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4752,7 +4758,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
                   <a:t>Number of characters</a:t>
                 </a:r>
               </a:p>
@@ -4771,7 +4777,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4803,7 +4809,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6503,15 +6509,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6549,10 +6555,10 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6591,9 +6597,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6947,8 +6953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7586,8 +7592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7816,7 +7822,7 @@
   <dimension ref="C7:T18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
